--- a/xlsx/合理使用_intext.xlsx
+++ b/xlsx/合理使用_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>合理使用</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_合理使用</t>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_合理使用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>著作權法</t>
+    <t>着作权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
@@ -77,43 +77,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%89%88%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>美國版權法</t>
+    <t>美国版权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E6%96%87</t>
   </si>
   <si>
-    <t>論文</t>
+    <t>论文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>廣播</t>
+    <t>广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1</t>
   </si>
   <si>
-    <t>攝影</t>
+    <t>摄影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%84%E5%BD%B1</t>
   </si>
   <si>
-    <t>錄影</t>
+    <t>录影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%BD%E9%9A%9C</t>
   </si>
   <si>
-    <t>聽障</t>
+    <t>听障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>點字</t>
+    <t>点字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>手語翻譯</t>
+    <t>手语翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -167,27 +167,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>演說</t>
+    <t>演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%91%97%E4%BD%9C%E6%9D%83%E6%B3%95</t>
   </si>
   <si>
-    <t>中华人民共和国著作权法</t>
+    <t>中华人民共和国着作权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%9D%83</t>
   </si>
   <si>
-    <t>著作权</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%A5%E7%BA%B8</t>
   </si>
   <si>
-    <t>报纸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E5%88%8A</t>
   </si>
   <si>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
   </si>
   <si>
-    <t>紀念館</t>
+    <t>纪念馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>美術館</t>
+    <t>美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%91%B9</t>
   </si>
   <si>
-    <t>臨摹</t>
+    <t>临摹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%98%E7%94%BB</t>
@@ -245,13 +242,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%BD%B1</t>
   </si>
   <si>
-    <t>摄影</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%84%E5%83%8F</t>
   </si>
   <si>
-    <t>錄像</t>
+    <t>录像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -272,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -1452,10 +1446,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1481,10 +1475,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -1510,10 +1504,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -1539,10 +1533,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1568,10 +1562,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1597,10 +1591,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1626,10 +1620,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1655,10 +1649,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1684,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1713,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1742,10 +1736,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1771,10 +1765,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1800,10 +1794,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1829,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -1858,10 +1852,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
